--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabrina.fontanella/PyCharmPrograms/clinica-aramis/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabrina.fontanella/PyCharmPrograms/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -132,9 +132,6 @@
     <t>MMSE</t>
   </si>
   <si>
-    <t>mmse</t>
-  </si>
-  <si>
     <t>FAQ</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>APOERES.csv</t>
+  </si>
+  <si>
+    <t>MMS</t>
   </si>
 </sst>
 </file>
@@ -2557,6 +2557,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2825,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2847,16 +2903,16 @@
   <sheetData>
     <row r="1" spans="1:34" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -2870,10 +2926,10 @@
     </row>
     <row r="2" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2886,16 +2942,16 @@
     </row>
     <row r="3" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -2930,10 +2986,10 @@
     </row>
     <row r="4" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2945,10 +3001,10 @@
     </row>
     <row r="5" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2960,10 +3016,10 @@
     </row>
     <row r="6" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2972,10 +3028,10 @@
     </row>
     <row r="7" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7"/>
@@ -2987,16 +3043,16 @@
     </row>
     <row r="8" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -3006,16 +3062,16 @@
     </row>
     <row r="9" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -3025,7 +3081,7 @@
     </row>
     <row r="10" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10"/>
@@ -3038,10 +3094,10 @@
     </row>
     <row r="11" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -3053,16 +3109,16 @@
     </row>
     <row r="12" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -3072,14 +3128,14 @@
     </row>
     <row r="13" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -3088,16 +3144,16 @@
     </row>
     <row r="14" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -3107,14 +3163,14 @@
     </row>
     <row r="15" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -3123,7 +3179,7 @@
     </row>
     <row r="16" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16"/>
@@ -3135,16 +3191,16 @@
     </row>
     <row r="17" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -3154,14 +3210,14 @@
     </row>
     <row r="18" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
@@ -3171,43 +3227,43 @@
     </row>
     <row r="19" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3215,10 +3271,10 @@
     </row>
     <row r="22" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -3228,7 +3284,7 @@
     </row>
     <row r="23" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -3239,10 +3295,10 @@
     </row>
     <row r="24" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -3281,10 +3337,10 @@
     </row>
     <row r="26" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3293,20 +3349,20 @@
     </row>
     <row r="27" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3315,10 +3371,10 @@
     </row>
     <row r="29" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3335,7 +3391,7 @@
     </row>
     <row r="31" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -3345,7 +3401,7 @@
     </row>
     <row r="32" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -3355,7 +3411,7 @@
     </row>
     <row r="33" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -3367,10 +3423,10 @@
     </row>
     <row r="34" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3381,10 +3437,10 @@
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3396,7 +3452,7 @@
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3408,7 +3464,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3420,7 +3476,7 @@
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3432,7 +3488,7 @@
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3444,7 +3500,7 @@
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -8398,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8419,10 +8475,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -8446,7 +8502,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>11</v>
@@ -8460,7 +8516,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>14</v>
@@ -8471,7 +8527,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>16</v>
@@ -8479,46 +8535,46 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>129</v>
-      </c>
       <c r="D7" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>129</v>
-      </c>
       <c r="D9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8526,7 +8582,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>18</v>
@@ -8537,7 +8593,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>20</v>
@@ -8548,7 +8604,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>22</v>
@@ -8559,7 +8615,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>24</v>
@@ -8570,79 +8626,79 @@
         <v>25</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8653,288 +8709,288 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>102</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8982,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -8995,25 +9051,25 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N1" s="6"/>
     </row>
@@ -9022,7 +9078,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -9034,10 +9090,10 @@
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="N2" s="6"/>
     </row>
@@ -9061,67 +9117,67 @@
         <v>6</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="6"/>
     </row>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -2881,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8455,7 +8455,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabrina.fontanella/PyCharmPrograms/clinica/clinica/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simona.bottani/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-62460" yWindow="-4540" windowWidth="28700" windowHeight="14700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="167">
   <si>
     <t>Field</t>
   </si>
@@ -541,6 +541,18 @@
   </si>
   <si>
     <t>MMS</t>
+  </si>
+  <si>
+    <t>CDGLOBAL</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>cdr_global</t>
+  </si>
+  <si>
+    <t>CDR.CSV</t>
   </si>
 </sst>
 </file>
@@ -812,80 +824,80 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="75">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2613,6 +2625,174 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8452,10 +8632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8623,389 +8803,403 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>34</v>
-      </c>
       <c r="B20" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-    </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D34" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="16"/>
-    </row>
     <row r="71" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="25"/>
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="25"/>
       <c r="D72" s="16"/>
     </row>
     <row r="73" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="25"/>
       <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="25"/>
+      <c r="D74" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-32520" yWindow="-1100" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
   <si>
     <t>Field</t>
   </si>
@@ -546,13 +546,10 @@
     <t>CDGLOBAL</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>cdr_global</t>
   </si>
   <si>
-    <t>CDR.CSV</t>
+    <t>CDR.csv</t>
   </si>
 </sst>
 </file>
@@ -2793,6 +2790,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8635,7 +8688,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8806,12 +8859,9 @@
         <v>163</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="15" t="s">
         <v>164</v>
       </c>
     </row>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -390,9 +390,6 @@
     <t>Q14</t>
   </si>
   <si>
-    <t>ADAS_ADNIGO2.csv</t>
-  </si>
-  <si>
     <t>Q1SCORE</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>CDR.csv</t>
+  </si>
+  <si>
+    <t>ADAS_ADNIGO23.csv</t>
   </si>
 </sst>
 </file>
@@ -2846,6 +2846,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3361,7 +3417,7 @@
     </row>
     <row r="13" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
@@ -3412,7 +3468,7 @@
     </row>
     <row r="16" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16"/>
@@ -3476,27 +3532,27 @@
     </row>
     <row r="20" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3570,7 +3626,7 @@
     </row>
     <row r="26" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>87</v>
@@ -3582,7 +3638,7 @@
     </row>
     <row r="27" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>87</v>
@@ -3592,7 +3648,7 @@
     </row>
     <row r="28" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>68</v>
@@ -3634,7 +3690,7 @@
     </row>
     <row r="32" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -3644,7 +3700,7 @@
     </row>
     <row r="33" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -3656,7 +3712,7 @@
     </row>
     <row r="34" spans="1:34" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>69</v>
@@ -3670,7 +3726,7 @@
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>90</v>
@@ -3685,7 +3741,7 @@
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3697,7 +3753,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3709,7 +3765,7 @@
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3721,7 +3777,7 @@
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3733,7 +3789,7 @@
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -8687,8 +8743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8768,32 +8824,32 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>128</v>
-      </c>
       <c r="D7" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>37</v>
@@ -8801,10 +8857,10 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>37</v>
@@ -8856,13 +8912,13 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8873,7 +8929,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8959,7 +9015,7 @@
         <v>101</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,7 +9026,7 @@
         <v>101</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8981,7 +9037,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8992,7 +9048,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,7 +9059,7 @@
         <v>101</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9014,7 +9070,7 @@
         <v>101</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9025,7 +9081,7 @@
         <v>101</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9036,7 +9092,7 @@
         <v>101</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9047,7 +9103,7 @@
         <v>101</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9058,7 +9114,7 @@
         <v>101</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9069,7 +9125,7 @@
         <v>101</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9080,7 +9136,7 @@
         <v>101</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9091,150 +9147,150 @@
         <v>101</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
